--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2696A0-B2DA-4EAF-B527-B4B04459D50F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9EE33-4574-4093-904C-702BC291F6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -200,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +211,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,18 +238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,30 +534,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -586,7 +590,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -605,7 +609,7 @@
         <f>AVERAGE(C3:E3)</f>
         <v>54.916666666666664</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <f>STDEV(C3:E3)</f>
         <v>0.90666053919498146</v>
       </c>
@@ -628,7 +632,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -645,7 +649,7 @@
         <f t="shared" ref="F4:F14" si="0">AVERAGE(C4:E4)</f>
         <v>1.0886666666666669</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G14" si="1">STDEV(C4:E4)</f>
         <v>1.1015141094572214E-2</v>
       </c>
@@ -659,16 +663,16 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K14" si="2">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K13" si="2">AVERAGE(H4:J4)</f>
         <v>0.38866666666666666</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
         <f t="shared" ref="L4:L14" si="3">STDEV(H4:J4)</f>
         <v>7.5055534994651419E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -677,80 +681,80 @@
       <c r="C5" s="3">
         <v>51.52</v>
       </c>
-      <c r="D5" s="3">
-        <v>60.98</v>
+      <c r="D5" s="5">
+        <v>68.61</v>
       </c>
       <c r="E5" s="3">
         <v>59.92</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>57.473333333333336</v>
+        <v>60.016666666666673</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>5.1829078067560976</v>
+        <v>8.5454100740299843</v>
       </c>
       <c r="H5" s="3">
         <v>72.239999999999995</v>
       </c>
       <c r="I5" s="3">
-        <v>77.47</v>
+        <v>82.7</v>
       </c>
       <c r="J5" s="3">
         <v>70.34</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="2"/>
-        <v>73.349999999999994</v>
+        <v>75.093333333333334</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="3"/>
-        <v>3.6923298877538002</v>
+        <v>6.6557143368186527</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>1.129</v>
       </c>
-      <c r="D6" s="4">
-        <v>1.0129999999999999</v>
+      <c r="D6" s="6">
+        <v>0.90900000000000003</v>
       </c>
       <c r="E6" s="4">
         <v>1.0269999999999999</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>1.0563333333333331</v>
+        <v>1.0216666666666667</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>6.3319296690134988E-2</v>
+        <v>0.11009692699314241</v>
       </c>
       <c r="H6" s="4">
         <v>0.56599999999999995</v>
       </c>
       <c r="I6" s="4">
-        <v>0.51</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="J6" s="4">
         <v>0.58499999999999996</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="2"/>
-        <v>0.55366666666666664</v>
+        <v>0.53266666666666662</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="3"/>
-        <v>3.8991452054691823E-2</v>
+        <v>7.4795276143172454E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -792,7 +796,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -826,13 +830,13 @@
         <f t="shared" si="2"/>
         <v>0.41733333333333333</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <f t="shared" si="3"/>
         <v>7.5055534994651419E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -874,7 +878,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -914,56 +918,104 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="C11" s="5">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="D11" s="3">
+        <v>57.29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>47.55</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>60.136666666666656</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>14.225249851350066</v>
+      </c>
+      <c r="H11" s="3">
+        <v>70.44</v>
+      </c>
+      <c r="I11" s="3">
+        <v>84.62</v>
+      </c>
+      <c r="J11" s="3">
+        <v>81.63</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>78.896666666666661</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>7.4747196157002014</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="C12" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.19058856209122257</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.48933333333333334</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="3"/>
+        <v>8.5113649512479739E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>59.23</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>61.61</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>63.22</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>61.353333333333332</v>
       </c>
@@ -971,39 +1023,39 @@
         <f t="shared" si="1"/>
         <v>2.0073448466402923</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>90.95</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="5">
         <v>90.78</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <v>90.03</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="5">
         <f t="shared" si="2"/>
         <v>90.586666666666659</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="5">
         <f t="shared" si="3"/>
         <v>0.48952357791360163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>1.036</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>1.0049999999999999</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>1.0083333333333333</v>
       </c>
@@ -1011,16 +1063,16 @@
         <f t="shared" si="1"/>
         <v>2.6159765544311264E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="6">
         <v>0.32300000000000001</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>0.32600000000000001</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="6">
         <v>0.33900000000000002</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="6">
         <f>AVERAGE(H14:J14)</f>
         <v>0.32933333333333331</v>
       </c>
@@ -1064,30 +1116,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -1120,343 +1172,343 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>64.8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>62.77</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>66.58</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <f>AVERAGE(C3:E3)</f>
         <v>64.716666666666654</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <f>STDEV(C3:E3)</f>
         <v>1.9063665264930885</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <v>88.19</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>89.59</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="7">
         <v>87.59</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="7">
         <f>AVERAGE(H3:J3)</f>
         <v>88.456666666666663</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="7">
         <f>STDEV(H3:J3)</f>
         <v>1.0263202878893776</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>0.99</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F10" si="0">AVERAGE(C4:E4)</f>
         <v>0.96333333333333326</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G10" si="1">STDEV(C4:E4)</f>
         <v>2.6025628394590869E-2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <v>0.36899999999999999</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>0.34699999999999998</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>0.379</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K9" si="2">AVERAGE(H4:J4)</f>
         <v>0.36499999999999999</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <f t="shared" ref="L4:L10" si="3">STDEV(H4:J4)</f>
         <v>1.6370705543744913E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>54.77</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>56.83</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>48.13</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>53.243333333333332</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>4.5464858224054012</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>88.29</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>88.95</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="7">
         <v>84.85</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <f t="shared" si="2"/>
         <v>87.363333333333344</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="7">
         <f t="shared" si="3"/>
         <v>2.2014843477375345</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>1.091</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>1.0660000000000001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>1.1083333333333334</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>5.3163270528940626E-2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>0.41799999999999998</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <f t="shared" si="2"/>
         <v>0.38100000000000001</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f t="shared" si="3"/>
         <v>3.2511536414017717E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>65.209999999999994</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>65.47</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>64.97</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>65.216666666666669</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0.25006665778014742</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>87.5</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <v>87.41</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="7">
         <v>87.57</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>87.493333333333339</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <f t="shared" si="3"/>
         <v>8.0208062770104949E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>0.95699999999999996</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>0.95299999999999996</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>0.96</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0.95666666666666667</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>3.5118845842842497E-3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <v>0.38</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>0.38100000000000001</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>0.379</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <f t="shared" si="2"/>
         <v>0.38000000000000006</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>55.55</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>54.98</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>53.9</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>54.81</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>0.83803341222173156</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>88.35</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="7">
         <v>88.63</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <v>89.2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <f t="shared" si="2"/>
         <v>88.726666666666674</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="7">
         <f t="shared" si="3"/>
         <v>0.43316663460305582</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>1.081</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>1.0880000000000001</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>1.101</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>1.0148891565092218E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="6">
         <v>0.36699999999999999</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="6">
         <v>0.35299999999999998</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="6">
         <f>AVERAGE(H10:J10)</f>
         <v>0.36066666666666664</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <f t="shared" si="3"/>
         <v>7.0945988845975937E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9EE33-4574-4093-904C-702BC291F6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213183BB-BDEF-4886-B205-047E94BC4904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting 1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>QV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,26 +31,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I-MLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L-MLP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I-RNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MCW-RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +60,34 @@
   </si>
   <si>
     <t>Std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-MLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-MLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -197,11 +209,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +269,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,6 +279,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,44 +567,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE07148-8CD8-4725-8B9B-814C6B356494}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -568,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -583,18 +630,18 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>54.47</v>
@@ -631,10 +678,10 @@
         <v>0.50500825075767697</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>1.0940000000000001</v>
@@ -646,11 +693,11 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F14" si="0">AVERAGE(C4:E4)</f>
+        <f t="shared" ref="F4:F16" si="0">AVERAGE(C4:E4)</f>
         <v>1.0886666666666669</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G14" si="1">STDEV(C4:E4)</f>
+        <f t="shared" ref="G4:G16" si="1">STDEV(C4:E4)</f>
         <v>1.1015141094572214E-2</v>
       </c>
       <c r="H4" s="4">
@@ -663,20 +710,20 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K13" si="2">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K15" si="2">AVERAGE(H4:J4)</f>
         <v>0.38866666666666666</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L14" si="3">STDEV(H4:J4)</f>
+        <f t="shared" ref="L4:L16" si="3">STDEV(H4:J4)</f>
         <v>7.5055534994651419E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>51.52</v>
@@ -713,10 +760,10 @@
         <v>6.6557143368186527</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>1.129</v>
@@ -753,12 +800,12 @@
         <v>7.4795276143172454E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>34.08</v>
@@ -795,10 +842,10 @@
         <v>0.54307764945109993</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>1.3169999999999999</v>
@@ -835,94 +882,46 @@
         <v>7.5055534994651419E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>54.3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>52.76</v>
-      </c>
-      <c r="E9" s="3">
-        <v>58.91</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>55.323333333333331</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>3.200161454260289</v>
-      </c>
-      <c r="H9" s="3">
-        <v>88.04</v>
-      </c>
-      <c r="I9" s="3">
-        <v>84.68</v>
-      </c>
-      <c r="J9" s="3">
-        <v>86.52</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="2"/>
-        <v>86.413333333333341</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
-        <v>1.6825377657970506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.115</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0836666666666668</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>3.8991452054691837E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.39599999999999996</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="3"/>
-        <v>2.4515301344262518E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="5">
         <v>75.569999999999993</v>
@@ -959,10 +958,10 @@
         <v>7.4747196157002014</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>0.8</v>
@@ -999,92 +998,174 @@
         <v>8.5113649512479739E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>54.3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>52.76</v>
+      </c>
+      <c r="E13" s="3">
+        <v>58.91</v>
+      </c>
+      <c r="F13" s="3">
+        <f>AVERAGE(C13:E13)</f>
+        <v>55.323333333333331</v>
+      </c>
+      <c r="G13" s="3">
+        <f>STDEV(C13:E13)</f>
+        <v>3.200161454260289</v>
+      </c>
+      <c r="H13" s="3">
+        <v>88.04</v>
+      </c>
+      <c r="I13" s="3">
+        <v>84.68</v>
+      </c>
+      <c r="J13" s="3">
+        <v>86.52</v>
+      </c>
+      <c r="K13" s="3">
+        <f>AVERAGE(H13:J13)</f>
+        <v>86.413333333333341</v>
+      </c>
+      <c r="L13" s="3">
+        <f>STDEV(H13:J13)</f>
+        <v>1.6825377657970506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="C14" s="4">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.115</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="F14" s="4">
+        <f>AVERAGE(C14:E14)</f>
+        <v>1.0836666666666668</v>
+      </c>
+      <c r="G14" s="4">
+        <f>STDEV(C14:E14)</f>
+        <v>3.8991452054691837E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.372</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="K14" s="4">
+        <f>AVERAGE(H14:J14)</f>
+        <v>0.39599999999999996</v>
+      </c>
+      <c r="L14" s="4">
+        <f>STDEV(H14:J14)</f>
+        <v>2.4515301344262518E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7">
         <v>59.23</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D15" s="7">
         <v>61.61</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E15" s="5">
         <v>63.22</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>61.353333333333332</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>2.0073448466402923</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H15" s="5">
         <v>90.95</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I15" s="5">
         <v>90.78</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J15" s="5">
         <v>90.03</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="2"/>
         <v>90.586666666666659</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="3"/>
         <v>0.48952357791360163</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8">
         <v>1.036</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D16" s="8">
         <v>1.0049999999999999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E16" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>1.0083333333333333</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>2.6159765544311264E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H16" s="6">
         <v>0.32300000000000001</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I16" s="6">
         <v>0.32600000000000001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J16" s="6">
         <v>0.33900000000000002</v>
       </c>
-      <c r="K14" s="6">
-        <f>AVERAGE(H14:J14)</f>
+      <c r="K16" s="6">
+        <f>AVERAGE(H16:J16)</f>
         <v>0.32933333333333331</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L16" s="4">
         <f t="shared" si="3"/>
         <v>8.5049005481153891E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:L1"/>
@@ -1092,6 +1173,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,38 +1190,38 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -1150,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1165,18 +1247,18 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
         <v>64.8</v>
@@ -1213,10 +1295,10 @@
         <v>1.0263202878893776</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8">
         <v>0.96199999999999997</v>
@@ -1253,12 +1335,12 @@
         <v>1.6370705543744913E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7">
         <v>54.77</v>
@@ -1295,10 +1377,10 @@
         <v>2.2014843477375345</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8">
         <v>1.091</v>
@@ -1335,12 +1417,12 @@
         <v>3.2511536414017717E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>65.209999999999994</v>
@@ -1377,10 +1459,10 @@
         <v>8.0208062770104949E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
         <v>0.95699999999999996</v>
@@ -1417,12 +1499,12 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>55.55</v>
@@ -1459,10 +1541,10 @@
         <v>0.43316663460305582</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8">
         <v>1.081</v>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213183BB-BDEF-4886-B205-047E94BC4904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8BA862-6802-458D-9DDD-A69E2CCF7B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,10 @@
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
@@ -889,32 +892,80 @@
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="3">
+        <v>31.27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28.48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10.85</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>23.533333333333331</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>11.072318335982468</v>
+      </c>
+      <c r="H9" s="5">
+        <v>92.23</v>
+      </c>
+      <c r="I9" s="3">
+        <v>82.97</v>
+      </c>
+      <c r="J9" s="5">
+        <v>91.27</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>88.823333333333323</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="3"/>
+        <v>5.0918104180471353</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="4">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.379</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2750000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>9.0862533532804338E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.35866666666666669</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
+        <v>7.9607369843082407E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -927,35 +978,35 @@
         <v>75.569999999999993</v>
       </c>
       <c r="D11" s="3">
-        <v>57.29</v>
+        <v>57.69</v>
       </c>
       <c r="E11" s="3">
-        <v>47.55</v>
+        <v>48.12</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>60.136666666666656</v>
+        <v>60.46</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>14.225249851350066</v>
+        <v>13.933064989441508</v>
       </c>
       <c r="H11" s="3">
-        <v>70.44</v>
+        <v>70.47</v>
       </c>
       <c r="I11" s="3">
-        <v>84.62</v>
+        <v>84.41</v>
       </c>
       <c r="J11" s="3">
-        <v>81.63</v>
+        <v>81.61</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="2"/>
-        <v>78.896666666666661</v>
+        <v>78.83</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="3"/>
-        <v>7.4747196157002014</v>
+        <v>7.3740897743382527</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -964,38 +1015,38 @@
         <v>7</v>
       </c>
       <c r="C12" s="6">
-        <v>0.8</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="D12" s="4">
-        <v>1.0580000000000001</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>1.1719999999999999</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>1.01</v>
+        <v>1.0083333333333333</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>0.19058856209122257</v>
+        <v>0.18740953373116656</v>
       </c>
       <c r="H12" s="4">
-        <v>0.58499999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="I12" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="J12" s="4">
         <v>0.46100000000000002</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>0.48933333333333334</v>
+        <v>0.48966666666666669</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>8.5113649512479739E-2</v>
+        <v>8.3763556116805568E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -1104,13 +1155,13 @@
         <f t="shared" si="1"/>
         <v>2.0073448466402923</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <v>90.95</v>
       </c>
       <c r="I15" s="5">
         <v>90.78</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="7">
         <v>90.03</v>
       </c>
       <c r="K15" s="5">
@@ -1144,13 +1195,13 @@
         <f t="shared" si="1"/>
         <v>2.6159765544311264E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>0.32300000000000001</v>
       </c>
       <c r="I16" s="6">
         <v>0.32600000000000001</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="8">
         <v>0.33900000000000002</v>
       </c>
       <c r="K16" s="6">

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8BA862-6802-458D-9DDD-A69E2CCF7B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAFD674-8319-4EE4-92FA-681E4EBE4BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="17">
   <si>
     <t>QV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,7 +1023,7 @@
       <c r="E12" s="4">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>1.0083333333333333</v>
       </c>
